--- a/References/BindingAddress.xlsx
+++ b/References/BindingAddress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>号码</t>
   </si>
@@ -24,12 +24,6 @@
     <t>密码</t>
   </si>
   <si>
-    <t>abc123456</t>
-  </si>
-  <si>
-    <t>abc123</t>
-  </si>
-  <si>
     <t>收货人姓名</t>
   </si>
   <si>
@@ -85,32 +79,12 @@
   </si>
   <si>
     <t>15000650846</t>
-  </si>
-  <si>
-    <t>xueqing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwe753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>省份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详细地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +92,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>上海市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄浦区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +134,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xinjiguaike@163.com</t>
-  </si>
-  <si>
-    <t>mbi@88819</t>
+    <t>psopass</t>
+  </si>
+  <si>
+    <t>rudytest11</t>
+  </si>
+  <si>
+    <t>rudytest22</t>
+  </si>
+  <si>
+    <t>rudytest33</t>
+  </si>
+  <si>
+    <t>rudytest44</t>
+  </si>
+  <si>
+    <t>rudytest55</t>
+  </si>
+  <si>
+    <t>rudytest66</t>
+  </si>
+  <si>
+    <t>rudytest77</t>
+  </si>
+  <si>
+    <t>rudytest88</t>
+  </si>
+  <si>
+    <t>rudytest99</t>
+  </si>
+  <si>
+    <t>黄浦区</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>乡镇</t>
+  </si>
+  <si>
+    <t>内环以内</t>
+  </si>
+  <si>
+    <t>内环中环之间</t>
+  </si>
+  <si>
+    <t>外环以外</t>
   </si>
 </sst>
 </file>
@@ -711,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -725,23 +740,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="25" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1087,288 +1108,303 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="18.125" style="6"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="7"/>
+    <col min="4" max="4" width="18.125" style="5"/>
+    <col min="5" max="8" width="18.125" style="11"/>
+    <col min="9" max="9" width="40.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2894902171</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1369844289</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>2630967926</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>2576950742</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>1473811167</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>2023549299</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7758258123</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>2024859455</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>2729795572</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
